--- a/public/exports/Laporan_Invoice_03-05-2025.xlsx
+++ b/public/exports/Laporan_Invoice_03-05-2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>Congklak</t>
+  </si>
+  <si>
+    <t>INV2505030005</t>
+  </si>
+  <si>
+    <t>kasir</t>
+  </si>
+  <si>
+    <t>Ular Tangga</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:J1"/>
@@ -789,6 +798,70 @@
         <v>28</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>62000</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>62000</v>
+      </c>
+      <c r="H11">
+        <v>65000</v>
+      </c>
+      <c r="I11">
+        <v>3000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>62000</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>62000</v>
+      </c>
+      <c r="H12">
+        <v>65000</v>
+      </c>
+      <c r="I12">
+        <v>3000</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
